--- a/data/trans_dic/P64D$otros_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$otros_2023-Edad-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.102177028318672</v>
+        <v>0.1199897689376507</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07733984360839628</v>
+        <v>0.05723691016594434</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003312634226019631</v>
+        <v>0.003293141536008487</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00776206234563349</v>
+        <v>0.007953802988094951</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007996571090393879</v>
+        <v>0.008778784837825796</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03956673457286564</v>
+        <v>0.03330860377263434</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04615304309495485</v>
+        <v>0.04394203419896024</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03105981160097803</v>
+        <v>0.03220137645264627</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.01152792376450153</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.003764382932793426</v>
+        <v>0.003764382932793425</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.00822622568196269</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00415957033662879</v>
+        <v>0.004604258926053846</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003491325846444586</v>
+        <v>0.0031721802398092</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02456022947814208</v>
+        <v>0.02482336020098993</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01161292222264946</v>
+        <v>0.01310878920485442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01625535916378778</v>
+        <v>0.01623582816553836</v>
       </c>
     </row>
     <row r="13">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.008224130184181477</v>
+        <v>0.008224130184181475</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.006011142691283665</v>
+        <v>0.006011142691283664</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.007215776320645797</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002485424991434162</v>
+        <v>0.002562103648248769</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001534394664523547</v>
+        <v>0.00152993523514696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003096174239507964</v>
+        <v>0.003332750977570629</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02040886089452078</v>
+        <v>0.0219785889450551</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01495037325073802</v>
+        <v>0.01377833572672298</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01346388495298291</v>
+        <v>0.01388187659495326</v>
       </c>
     </row>
     <row r="16">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005270056851294624</v>
+        <v>0.004862684642230331</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.002854142937492371</v>
+        <v>0.002850171283171799</v>
       </c>
     </row>
     <row r="18">
@@ -812,11 +812,11 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03265606807498715</v>
+        <v>0.02941020652435181</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.01652703180113682</v>
+        <v>0.01706533805662587</v>
       </c>
     </row>
     <row r="19">
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006455447029263465</v>
+        <v>0.006723814262110123</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.004341245494498652</v>
+        <v>0.004624895301116283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006725425552698428</v>
+        <v>0.00671084512439418</v>
       </c>
     </row>
     <row r="21">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0163549431985714</v>
+        <v>0.01707535210493391</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0156282319570901</v>
+        <v>0.01725153834037192</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01375845674012851</v>
+        <v>0.01415036658896434</v>
       </c>
     </row>
     <row r="22">
@@ -1030,10 +1030,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>9374</v>
+        <v>11008</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15202</v>
+        <v>11251</v>
       </c>
     </row>
     <row r="8">
@@ -1082,13 +1082,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2446</v>
+        <v>2506</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5686</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="11">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15665</v>
+        <v>13188</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14544</v>
+        <v>13847</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22085</v>
+        <v>22896</v>
       </c>
     </row>
     <row r="12">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2232</v>
+        <v>2470</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3259</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="15">
@@ -1171,13 +1171,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13176</v>
+        <v>13318</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4610</v>
+        <v>5204</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15174</v>
+        <v>15156</v>
       </c>
     </row>
     <row r="16">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1351</v>
+        <v>1393</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3092</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="19">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11093</v>
+        <v>11946</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6802</v>
+        <v>6269</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13444</v>
+        <v>13862</v>
       </c>
     </row>
     <row r="20">
@@ -1298,11 +1298,11 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1725</v>
+        <v>1592</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="23">
@@ -1313,11 +1313,11 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10692</v>
+        <v>9629</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>9257</v>
+        <v>9559</v>
       </c>
     </row>
     <row r="24">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>12318</v>
+        <v>12830</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6475</v>
+        <v>6898</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>22865</v>
+        <v>22815</v>
       </c>
     </row>
     <row r="27">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>31208</v>
+        <v>32583</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23311</v>
+        <v>25732</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>46776</v>
+        <v>48108</v>
       </c>
     </row>
     <row r="28">
